--- a/HW Source Files/Schematic_BOM/SENSORKIT_MULTISENSORSHIELD_BOARD_BOM_REV01_2015-05-18.xlsx
+++ b/HW Source Files/Schematic_BOM/SENSORKIT_MULTISENSORSHIELD_BOARD_BOM_REV01_2015-05-18.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flee\Desktop\Applications Development\Github\ROHM_SensorPlatform_Multi-Sensor-Shield\HW Source Files\Schematic_BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="840" yWindow="-135" windowWidth="27795" windowHeight="4620"/>
   </bookViews>
@@ -14,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="163">
-  <si>
-    <t>Sensor Platform Multi-Sensor Shield  Revised: Thursday, May 14, 2015</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="184">
   <si>
     <t>Item</t>
   </si>
@@ -58,9 +60,6 @@
     <t>ROHM Comment</t>
   </si>
   <si>
-    <t>C1,C2,C3,C5,C6,C9,C10,C11,C13,C14,C17,C21,C23,C24,C25,C26,C27,C28,C29,C30,C31</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -112,9 +111,6 @@
     <t>490-3264-1-ND</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -199,30 +195,18 @@
     <t>H4</t>
   </si>
   <si>
-    <t>Header_Ard_Power</t>
-  </si>
-  <si>
     <t>HDR_THVT_1X8_100</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>Header_Ard_AnalogIn</t>
-  </si>
-  <si>
     <t>H6</t>
   </si>
   <si>
-    <t>Header_Ard_Digital1</t>
-  </si>
-  <si>
     <t>H7</t>
   </si>
   <si>
-    <t>Header_Ard_Digital2</t>
-  </si>
-  <si>
     <t>HDR_THVT_1X10_100</t>
   </si>
   <si>
@@ -256,9 +240,6 @@
     <t>HDR_THVT_1X3_100</t>
   </si>
   <si>
-    <t>J1,J2,J3,J4,J5,J6,J7,J8,J9,J10,J11,J12,J13</t>
-  </si>
-  <si>
     <t>2-Pin Header</t>
   </si>
   <si>
@@ -283,9 +264,6 @@
     <t>RHM10KCGTR-ND</t>
   </si>
   <si>
-    <t>R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R39</t>
-  </si>
-  <si>
     <t>RES 0.0 OHM 1/10W JUMP 0603 SMD</t>
   </si>
   <si>
@@ -487,9 +465,6 @@
     <t>CONN HEADER VERT SGL 8POS</t>
   </si>
   <si>
-    <t>CONN HEADER VERT SGL 10POS</t>
-  </si>
-  <si>
     <t>CONN HEADER VERT SGL 7POS</t>
   </si>
   <si>
@@ -499,10 +474,103 @@
     <t>111-Pin Header</t>
   </si>
   <si>
-    <t>R1,R38,R8,R9,R10,R34,R36,R37</t>
-  </si>
-  <si>
-    <t>See Item 34</t>
+    <t>J1,J2,J3,J4</t>
+  </si>
+  <si>
+    <t>CONN RCPT .100" 32POS TIN WW</t>
+  </si>
+  <si>
+    <t>Stackable Headers</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>SAM8864-ND</t>
+  </si>
+  <si>
+    <t>SSA-132-W-T</t>
+  </si>
+  <si>
+    <t>Standard Pitch Through-Hole Male</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>BM1422GMV</t>
+  </si>
+  <si>
+    <t>MLLGA010V020A</t>
+  </si>
+  <si>
+    <t>3-Axis Magnetometer</t>
+  </si>
+  <si>
+    <t>R1,R38,R8,R9,R10,R34,R36,R37,R45</t>
+  </si>
+  <si>
+    <t>R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R39,R40,R41,R44</t>
+  </si>
+  <si>
+    <t>Sensor Platform Multi-Sensor Shield  Revised: Thursday, Sep 10, 2015</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>NVT2003DP,118</t>
+  </si>
+  <si>
+    <t>TSSOP10</t>
+  </si>
+  <si>
+    <t>3 Channel Level Shifter</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>568-8383-2-ND</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>RES SMD 200K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>TRR01MZPF2003</t>
+  </si>
+  <si>
+    <t>RHM200KBHCT-ND</t>
+  </si>
+  <si>
+    <t>BU18TA2WNVX-TR</t>
+  </si>
+  <si>
+    <t>4-SSON-EP</t>
+  </si>
+  <si>
+    <t>1.8v LDO</t>
+  </si>
+  <si>
+    <t>BU18TA2WNVXCT-ND</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>C12, C32, C33, C34,C35,C36</t>
+  </si>
+  <si>
+    <t>C1,C2,C3,C5,C6,C9,C10,C11,C13,C14,C17,C21,C23,C24,C25,C26,C27,C28,C29,C30,C31,37</t>
   </si>
 </sst>
 </file>
@@ -660,7 +728,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,8 +914,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1109,6 +1183,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1155,7 +1255,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1181,45 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1237,6 +1298,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1289,6 +1425,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1336,7 +1475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1371,7 +1510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1580,15 +1719,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:EI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" customWidth="1"/>
     <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
@@ -1600,1195 +1739,2693 @@
     <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="6" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="28">
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="24"/>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>2</v>
-      </c>
-      <c r="B6" s="28">
+    <row r="7" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="H7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M6" s="24"/>
+      <c r="J7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>3</v>
-      </c>
-      <c r="B7" s="28">
+    <row r="8" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="H9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="24"/>
+      <c r="J9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>4</v>
-      </c>
-      <c r="B8" s="28">
+    <row r="10" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="H10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>5</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>6</v>
-      </c>
-      <c r="B10" s="28">
-        <v>1</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="24"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="16">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="G11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="29">
-        <v>8</v>
+      <c r="B12" s="16">
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="29">
-        <v>24</v>
+      <c r="B13" s="16">
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="16">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6">
         <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="16">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>176</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="15">
         <v>12</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="16">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>13</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="16">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+    <row r="18" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>14</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="16">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="19" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>15</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="16">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+    <row r="20" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>16</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="16">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+    <row r="21" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>17</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="16">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+    <row r="22" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>18</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="16">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+    <row r="23" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>19</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="16">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="9" t="s">
-        <v>149</v>
+        <v>121</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+    <row r="24" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>20</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="16">
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+    <row r="25" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>21</v>
       </c>
-      <c r="B25" s="29">
-        <v>4</v>
+      <c r="B25" s="16">
+        <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="9" t="s">
-        <v>148</v>
+        <v>128</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+    <row r="26" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>22</v>
       </c>
-      <c r="B26" s="29">
-        <v>1</v>
+      <c r="B26" s="16">
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+    <row r="27" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>23</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="9"/>
+        <v>160</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+    <row r="28" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>24</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="16">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>57</v>
+      <c r="C28" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+    <row r="29" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="16">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+    <row r="30" spans="1:139" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>26</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="16">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="21"/>
+      <c r="AT30" s="21"/>
+      <c r="AU30" s="21"/>
+      <c r="AV30" s="21"/>
+      <c r="AW30" s="21"/>
+      <c r="AX30" s="21"/>
+      <c r="AY30" s="21"/>
+      <c r="AZ30" s="21"/>
+      <c r="BA30" s="21"/>
+      <c r="BB30" s="21"/>
+      <c r="BC30" s="21"/>
+      <c r="BD30" s="21"/>
+      <c r="BE30" s="21"/>
+      <c r="BF30" s="21"/>
+      <c r="BG30" s="21"/>
+      <c r="BH30" s="21"/>
+      <c r="BI30" s="21"/>
+      <c r="BJ30" s="21"/>
+      <c r="BK30" s="21"/>
+      <c r="BL30" s="21"/>
+      <c r="BM30" s="21"/>
+      <c r="BN30" s="21"/>
+      <c r="BO30" s="21"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="21"/>
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="21"/>
+      <c r="BU30" s="21"/>
+      <c r="BV30" s="21"/>
+      <c r="BW30" s="21"/>
+      <c r="BX30" s="21"/>
+      <c r="BY30" s="21"/>
+      <c r="BZ30" s="21"/>
+      <c r="CA30" s="21"/>
+      <c r="CB30" s="21"/>
+      <c r="CC30" s="21"/>
+      <c r="CD30" s="21"/>
+      <c r="CE30" s="21"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21"/>
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CN30" s="21"/>
+      <c r="CO30" s="21"/>
+      <c r="CP30" s="21"/>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
+      <c r="CS30" s="21"/>
+      <c r="CT30" s="21"/>
+      <c r="CU30" s="21"/>
+      <c r="CV30" s="21"/>
+      <c r="CW30" s="21"/>
+      <c r="CX30" s="21"/>
+      <c r="CY30" s="21"/>
+      <c r="CZ30" s="21"/>
+      <c r="DA30" s="21"/>
+      <c r="DB30" s="21"/>
+      <c r="DC30" s="21"/>
+      <c r="DD30" s="21"/>
+      <c r="DE30" s="21"/>
+      <c r="DF30" s="21"/>
+      <c r="DG30" s="21"/>
+      <c r="DH30" s="21"/>
+      <c r="DI30" s="21"/>
+      <c r="DJ30" s="21"/>
+      <c r="DK30" s="21"/>
+      <c r="DL30" s="21"/>
+      <c r="DM30" s="21"/>
+      <c r="DN30" s="21"/>
+      <c r="DO30" s="21"/>
+      <c r="DP30" s="21"/>
+      <c r="DQ30" s="21"/>
+      <c r="DR30" s="21"/>
+      <c r="DS30" s="21"/>
+      <c r="DT30" s="21"/>
+      <c r="DU30" s="21"/>
+      <c r="DV30" s="21"/>
+      <c r="DW30" s="21"/>
+      <c r="DX30" s="21"/>
+      <c r="DY30" s="21"/>
+      <c r="DZ30" s="21"/>
+      <c r="EA30" s="21"/>
+      <c r="EB30" s="21"/>
+      <c r="EC30" s="21"/>
+      <c r="ED30" s="21"/>
+      <c r="EE30" s="21"/>
+      <c r="EF30" s="21"/>
+      <c r="EG30" s="21"/>
+      <c r="EH30" s="21"/>
+      <c r="EI30" s="21"/>
+    </row>
+    <row r="31" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="21"/>
+      <c r="BM31" s="21"/>
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="21"/>
+      <c r="BR31" s="21"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="21"/>
+      <c r="BU31" s="21"/>
+      <c r="BV31" s="21"/>
+      <c r="BW31" s="21"/>
+      <c r="BX31" s="21"/>
+      <c r="BY31" s="21"/>
+      <c r="BZ31" s="21"/>
+      <c r="CA31" s="21"/>
+      <c r="CB31" s="21"/>
+      <c r="CC31" s="21"/>
+      <c r="CD31" s="21"/>
+      <c r="CE31" s="21"/>
+      <c r="CF31" s="21"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" s="21"/>
+      <c r="CI31" s="21"/>
+      <c r="CJ31" s="21"/>
+      <c r="CK31" s="21"/>
+      <c r="CL31" s="21"/>
+      <c r="CM31" s="21"/>
+      <c r="CN31" s="21"/>
+      <c r="CO31" s="21"/>
+      <c r="CP31" s="21"/>
+      <c r="CQ31" s="21"/>
+      <c r="CR31" s="21"/>
+      <c r="CS31" s="21"/>
+      <c r="CT31" s="21"/>
+      <c r="CU31" s="21"/>
+      <c r="CV31" s="21"/>
+      <c r="CW31" s="21"/>
+      <c r="CX31" s="21"/>
+      <c r="CY31" s="21"/>
+      <c r="CZ31" s="21"/>
+      <c r="DA31" s="21"/>
+      <c r="DB31" s="21"/>
+      <c r="DC31" s="21"/>
+      <c r="DD31" s="21"/>
+      <c r="DE31" s="21"/>
+      <c r="DF31" s="21"/>
+      <c r="DG31" s="21"/>
+      <c r="DH31" s="21"/>
+      <c r="DI31" s="21"/>
+      <c r="DJ31" s="21"/>
+      <c r="DK31" s="21"/>
+      <c r="DL31" s="21"/>
+      <c r="DM31" s="21"/>
+      <c r="DN31" s="21"/>
+      <c r="DO31" s="21"/>
+      <c r="DP31" s="21"/>
+      <c r="DQ31" s="21"/>
+      <c r="DR31" s="21"/>
+      <c r="DS31" s="21"/>
+      <c r="DT31" s="21"/>
+      <c r="DU31" s="21"/>
+      <c r="DV31" s="21"/>
+      <c r="DW31" s="21"/>
+      <c r="DX31" s="21"/>
+      <c r="DY31" s="21"/>
+      <c r="DZ31" s="21"/>
+      <c r="EA31" s="21"/>
+      <c r="EB31" s="21"/>
+      <c r="EC31" s="21"/>
+      <c r="ED31" s="21"/>
+      <c r="EE31" s="21"/>
+      <c r="EF31" s="21"/>
+      <c r="EG31" s="21"/>
+      <c r="EH31" s="21"/>
+      <c r="EI31" s="21"/>
+    </row>
+    <row r="32" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>28</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="28"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21"/>
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="21"/>
+      <c r="AT32" s="21"/>
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21"/>
+      <c r="AY32" s="21"/>
+      <c r="AZ32" s="21"/>
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21"/>
+      <c r="BC32" s="21"/>
+      <c r="BD32" s="21"/>
+      <c r="BE32" s="21"/>
+      <c r="BF32" s="21"/>
+      <c r="BG32" s="21"/>
+      <c r="BH32" s="21"/>
+      <c r="BI32" s="21"/>
+      <c r="BJ32" s="21"/>
+      <c r="BK32" s="21"/>
+      <c r="BL32" s="21"/>
+      <c r="BM32" s="21"/>
+      <c r="BN32" s="21"/>
+      <c r="BO32" s="21"/>
+      <c r="BP32" s="21"/>
+      <c r="BQ32" s="21"/>
+      <c r="BR32" s="21"/>
+      <c r="BS32" s="21"/>
+      <c r="BT32" s="21"/>
+      <c r="BU32" s="21"/>
+      <c r="BV32" s="21"/>
+      <c r="BW32" s="21"/>
+      <c r="BX32" s="21"/>
+      <c r="BY32" s="21"/>
+      <c r="BZ32" s="21"/>
+      <c r="CA32" s="21"/>
+      <c r="CB32" s="21"/>
+      <c r="CC32" s="21"/>
+      <c r="CD32" s="21"/>
+      <c r="CE32" s="21"/>
+      <c r="CF32" s="21"/>
+      <c r="CG32" s="21"/>
+      <c r="CH32" s="21"/>
+      <c r="CI32" s="21"/>
+      <c r="CJ32" s="21"/>
+      <c r="CK32" s="21"/>
+      <c r="CL32" s="21"/>
+      <c r="CM32" s="21"/>
+      <c r="CN32" s="21"/>
+      <c r="CO32" s="21"/>
+      <c r="CP32" s="21"/>
+      <c r="CQ32" s="21"/>
+      <c r="CR32" s="21"/>
+      <c r="CS32" s="21"/>
+      <c r="CT32" s="21"/>
+      <c r="CU32" s="21"/>
+      <c r="CV32" s="21"/>
+      <c r="CW32" s="21"/>
+      <c r="CX32" s="21"/>
+      <c r="CY32" s="21"/>
+      <c r="CZ32" s="21"/>
+      <c r="DA32" s="21"/>
+      <c r="DB32" s="21"/>
+      <c r="DC32" s="21"/>
+      <c r="DD32" s="21"/>
+      <c r="DE32" s="21"/>
+      <c r="DF32" s="21"/>
+      <c r="DG32" s="21"/>
+      <c r="DH32" s="21"/>
+      <c r="DI32" s="21"/>
+      <c r="DJ32" s="21"/>
+      <c r="DK32" s="21"/>
+      <c r="DL32" s="21"/>
+      <c r="DM32" s="21"/>
+      <c r="DN32" s="21"/>
+      <c r="DO32" s="21"/>
+      <c r="DP32" s="21"/>
+      <c r="DQ32" s="21"/>
+      <c r="DR32" s="21"/>
+      <c r="DS32" s="21"/>
+      <c r="DT32" s="21"/>
+      <c r="DU32" s="21"/>
+      <c r="DV32" s="21"/>
+      <c r="DW32" s="21"/>
+      <c r="DX32" s="21"/>
+      <c r="DY32" s="21"/>
+      <c r="DZ32" s="21"/>
+      <c r="EA32" s="21"/>
+      <c r="EB32" s="21"/>
+      <c r="EC32" s="21"/>
+      <c r="ED32" s="21"/>
+      <c r="EE32" s="21"/>
+      <c r="EF32" s="21"/>
+      <c r="EG32" s="21"/>
+      <c r="EH32" s="21"/>
+      <c r="EI32" s="21"/>
+    </row>
+    <row r="33" spans="1:139" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>29</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="21"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="21"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="21"/>
+      <c r="AR33" s="21"/>
+      <c r="AS33" s="21"/>
+      <c r="AT33" s="21"/>
+      <c r="AU33" s="21"/>
+      <c r="AV33" s="21"/>
+      <c r="AW33" s="21"/>
+      <c r="AX33" s="21"/>
+      <c r="AY33" s="21"/>
+      <c r="AZ33" s="21"/>
+      <c r="BA33" s="21"/>
+      <c r="BB33" s="21"/>
+      <c r="BC33" s="21"/>
+      <c r="BD33" s="21"/>
+      <c r="BE33" s="21"/>
+      <c r="BF33" s="21"/>
+      <c r="BG33" s="21"/>
+      <c r="BH33" s="21"/>
+      <c r="BI33" s="21"/>
+      <c r="BJ33" s="21"/>
+      <c r="BK33" s="21"/>
+      <c r="BL33" s="21"/>
+      <c r="BM33" s="21"/>
+      <c r="BN33" s="21"/>
+      <c r="BO33" s="21"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="21"/>
+      <c r="BR33" s="21"/>
+      <c r="BS33" s="21"/>
+      <c r="BT33" s="21"/>
+      <c r="BU33" s="21"/>
+      <c r="BV33" s="21"/>
+      <c r="BW33" s="21"/>
+      <c r="BX33" s="21"/>
+      <c r="BY33" s="21"/>
+      <c r="BZ33" s="21"/>
+      <c r="CA33" s="21"/>
+      <c r="CB33" s="21"/>
+      <c r="CC33" s="21"/>
+      <c r="CD33" s="21"/>
+      <c r="CE33" s="21"/>
+      <c r="CF33" s="21"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
+      <c r="CN33" s="21"/>
+      <c r="CO33" s="21"/>
+      <c r="CP33" s="21"/>
+      <c r="CQ33" s="21"/>
+      <c r="CR33" s="21"/>
+      <c r="CS33" s="21"/>
+      <c r="CT33" s="21"/>
+      <c r="CU33" s="21"/>
+      <c r="CV33" s="21"/>
+      <c r="CW33" s="21"/>
+      <c r="CX33" s="21"/>
+      <c r="CY33" s="21"/>
+      <c r="CZ33" s="21"/>
+      <c r="DA33" s="21"/>
+      <c r="DB33" s="21"/>
+      <c r="DC33" s="21"/>
+      <c r="DD33" s="21"/>
+      <c r="DE33" s="21"/>
+      <c r="DF33" s="21"/>
+      <c r="DG33" s="21"/>
+      <c r="DH33" s="21"/>
+      <c r="DI33" s="21"/>
+      <c r="DJ33" s="21"/>
+      <c r="DK33" s="21"/>
+      <c r="DL33" s="21"/>
+      <c r="DM33" s="21"/>
+      <c r="DN33" s="21"/>
+      <c r="DO33" s="21"/>
+      <c r="DP33" s="21"/>
+      <c r="DQ33" s="21"/>
+      <c r="DR33" s="21"/>
+      <c r="DS33" s="21"/>
+      <c r="DT33" s="21"/>
+      <c r="DU33" s="21"/>
+      <c r="DV33" s="21"/>
+      <c r="DW33" s="21"/>
+      <c r="DX33" s="21"/>
+      <c r="DY33" s="21"/>
+      <c r="DZ33" s="21"/>
+      <c r="EA33" s="21"/>
+      <c r="EB33" s="21"/>
+      <c r="EC33" s="21"/>
+      <c r="ED33" s="21"/>
+      <c r="EE33" s="21"/>
+      <c r="EF33" s="21"/>
+      <c r="EG33" s="21"/>
+      <c r="EH33" s="21"/>
+      <c r="EI33" s="21"/>
+    </row>
+    <row r="34" spans="1:139" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>30</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21"/>
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="21"/>
+      <c r="BF34" s="21"/>
+      <c r="BG34" s="21"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
+      <c r="BN34" s="21"/>
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21"/>
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+      <c r="BV34" s="21"/>
+      <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21"/>
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
+      <c r="CD34" s="21"/>
+      <c r="CE34" s="21"/>
+      <c r="CF34" s="21"/>
+      <c r="CG34" s="21"/>
+      <c r="CH34" s="21"/>
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="21"/>
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21"/>
+      <c r="CU34" s="21"/>
+      <c r="CV34" s="21"/>
+      <c r="CW34" s="21"/>
+      <c r="CX34" s="21"/>
+      <c r="CY34" s="21"/>
+      <c r="CZ34" s="21"/>
+      <c r="DA34" s="21"/>
+      <c r="DB34" s="21"/>
+      <c r="DC34" s="21"/>
+      <c r="DD34" s="21"/>
+      <c r="DE34" s="21"/>
+      <c r="DF34" s="21"/>
+      <c r="DG34" s="21"/>
+      <c r="DH34" s="21"/>
+      <c r="DI34" s="21"/>
+      <c r="DJ34" s="21"/>
+      <c r="DK34" s="21"/>
+      <c r="DL34" s="21"/>
+      <c r="DM34" s="21"/>
+      <c r="DN34" s="21"/>
+      <c r="DO34" s="21"/>
+      <c r="DP34" s="21"/>
+      <c r="DQ34" s="21"/>
+      <c r="DR34" s="21"/>
+      <c r="DS34" s="21"/>
+      <c r="DT34" s="21"/>
+      <c r="DU34" s="21"/>
+      <c r="DV34" s="21"/>
+      <c r="DW34" s="21"/>
+      <c r="DX34" s="21"/>
+      <c r="DY34" s="21"/>
+      <c r="DZ34" s="21"/>
+      <c r="EA34" s="21"/>
+      <c r="EB34" s="21"/>
+      <c r="EC34" s="21"/>
+      <c r="ED34" s="21"/>
+      <c r="EE34" s="21"/>
+      <c r="EF34" s="21"/>
+      <c r="EG34" s="21"/>
+      <c r="EH34" s="21"/>
+      <c r="EI34" s="21"/>
+    </row>
+    <row r="35" spans="1:139" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>31</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="21"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="21"/>
+      <c r="AZ35" s="21"/>
+      <c r="BA35" s="21"/>
+      <c r="BB35" s="21"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21"/>
+      <c r="BE35" s="21"/>
+      <c r="BF35" s="21"/>
+      <c r="BG35" s="21"/>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="21"/>
+      <c r="BK35" s="21"/>
+      <c r="BL35" s="21"/>
+      <c r="BM35" s="21"/>
+      <c r="BN35" s="21"/>
+      <c r="BO35" s="21"/>
+      <c r="BP35" s="21"/>
+      <c r="BQ35" s="21"/>
+      <c r="BR35" s="21"/>
+      <c r="BS35" s="21"/>
+      <c r="BT35" s="21"/>
+      <c r="BU35" s="21"/>
+      <c r="BV35" s="21"/>
+      <c r="BW35" s="21"/>
+      <c r="BX35" s="21"/>
+      <c r="BY35" s="21"/>
+      <c r="BZ35" s="21"/>
+      <c r="CA35" s="21"/>
+      <c r="CB35" s="21"/>
+      <c r="CC35" s="21"/>
+      <c r="CD35" s="21"/>
+      <c r="CE35" s="21"/>
+      <c r="CF35" s="21"/>
+      <c r="CG35" s="21"/>
+      <c r="CH35" s="21"/>
+      <c r="CI35" s="21"/>
+      <c r="CJ35" s="21"/>
+      <c r="CK35" s="21"/>
+      <c r="CL35" s="21"/>
+      <c r="CM35" s="21"/>
+      <c r="CN35" s="21"/>
+      <c r="CO35" s="21"/>
+      <c r="CP35" s="21"/>
+      <c r="CQ35" s="21"/>
+      <c r="CR35" s="21"/>
+      <c r="CS35" s="21"/>
+      <c r="CT35" s="21"/>
+      <c r="CU35" s="21"/>
+      <c r="CV35" s="21"/>
+      <c r="CW35" s="21"/>
+      <c r="CX35" s="21"/>
+      <c r="CY35" s="21"/>
+      <c r="CZ35" s="21"/>
+      <c r="DA35" s="21"/>
+      <c r="DB35" s="21"/>
+      <c r="DC35" s="21"/>
+      <c r="DD35" s="21"/>
+      <c r="DE35" s="21"/>
+      <c r="DF35" s="21"/>
+      <c r="DG35" s="21"/>
+      <c r="DH35" s="21"/>
+      <c r="DI35" s="21"/>
+      <c r="DJ35" s="21"/>
+      <c r="DK35" s="21"/>
+      <c r="DL35" s="21"/>
+      <c r="DM35" s="21"/>
+      <c r="DN35" s="21"/>
+      <c r="DO35" s="21"/>
+      <c r="DP35" s="21"/>
+      <c r="DQ35" s="21"/>
+      <c r="DR35" s="21"/>
+      <c r="DS35" s="21"/>
+      <c r="DT35" s="21"/>
+      <c r="DU35" s="21"/>
+      <c r="DV35" s="21"/>
+      <c r="DW35" s="21"/>
+      <c r="DX35" s="21"/>
+      <c r="DY35" s="21"/>
+      <c r="DZ35" s="21"/>
+      <c r="EA35" s="21"/>
+      <c r="EB35" s="21"/>
+      <c r="EC35" s="21"/>
+      <c r="ED35" s="21"/>
+      <c r="EE35" s="21"/>
+      <c r="EF35" s="21"/>
+      <c r="EG35" s="21"/>
+      <c r="EH35" s="21"/>
+      <c r="EI35" s="21"/>
+    </row>
+    <row r="36" spans="1:139" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>32</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="21"/>
+      <c r="BF36" s="21"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="21"/>
+      <c r="BI36" s="21"/>
+      <c r="BJ36" s="21"/>
+      <c r="BK36" s="21"/>
+      <c r="BL36" s="21"/>
+      <c r="BM36" s="21"/>
+      <c r="BN36" s="21"/>
+      <c r="BO36" s="21"/>
+      <c r="BP36" s="21"/>
+      <c r="BQ36" s="21"/>
+      <c r="BR36" s="21"/>
+      <c r="BS36" s="21"/>
+      <c r="BT36" s="21"/>
+      <c r="BU36" s="21"/>
+      <c r="BV36" s="21"/>
+      <c r="BW36" s="21"/>
+      <c r="BX36" s="21"/>
+      <c r="BY36" s="21"/>
+      <c r="BZ36" s="21"/>
+      <c r="CA36" s="21"/>
+      <c r="CB36" s="21"/>
+      <c r="CC36" s="21"/>
+      <c r="CD36" s="21"/>
+      <c r="CE36" s="21"/>
+      <c r="CF36" s="21"/>
+      <c r="CG36" s="21"/>
+      <c r="CH36" s="21"/>
+      <c r="CI36" s="21"/>
+      <c r="CJ36" s="21"/>
+      <c r="CK36" s="21"/>
+      <c r="CL36" s="21"/>
+      <c r="CM36" s="21"/>
+      <c r="CN36" s="21"/>
+      <c r="CO36" s="21"/>
+      <c r="CP36" s="21"/>
+      <c r="CQ36" s="21"/>
+      <c r="CR36" s="21"/>
+      <c r="CS36" s="21"/>
+      <c r="CT36" s="21"/>
+      <c r="CU36" s="21"/>
+      <c r="CV36" s="21"/>
+      <c r="CW36" s="21"/>
+      <c r="CX36" s="21"/>
+      <c r="CY36" s="21"/>
+      <c r="CZ36" s="21"/>
+      <c r="DA36" s="21"/>
+      <c r="DB36" s="21"/>
+      <c r="DC36" s="21"/>
+      <c r="DD36" s="21"/>
+      <c r="DE36" s="21"/>
+      <c r="DF36" s="21"/>
+      <c r="DG36" s="21"/>
+      <c r="DH36" s="21"/>
+      <c r="DI36" s="21"/>
+      <c r="DJ36" s="21"/>
+      <c r="DK36" s="21"/>
+      <c r="DL36" s="21"/>
+      <c r="DM36" s="21"/>
+      <c r="DN36" s="21"/>
+      <c r="DO36" s="21"/>
+      <c r="DP36" s="21"/>
+      <c r="DQ36" s="21"/>
+      <c r="DR36" s="21"/>
+      <c r="DS36" s="21"/>
+      <c r="DT36" s="21"/>
+      <c r="DU36" s="21"/>
+      <c r="DV36" s="21"/>
+      <c r="DW36" s="21"/>
+      <c r="DX36" s="21"/>
+      <c r="DY36" s="21"/>
+      <c r="DZ36" s="21"/>
+      <c r="EA36" s="21"/>
+      <c r="EB36" s="21"/>
+      <c r="EC36" s="21"/>
+      <c r="ED36" s="21"/>
+      <c r="EE36" s="21"/>
+      <c r="EF36" s="21"/>
+      <c r="EG36" s="21"/>
+      <c r="EH36" s="21"/>
+      <c r="EI36" s="21"/>
+    </row>
+    <row r="37" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>33</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D37" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="5"/>
+      <c r="E37" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="21"/>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="21"/>
+      <c r="BF37" s="21"/>
+      <c r="BG37" s="21"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="21"/>
+      <c r="BK37" s="21"/>
+      <c r="BL37" s="21"/>
+      <c r="BM37" s="21"/>
+      <c r="BN37" s="21"/>
+      <c r="BO37" s="21"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="21"/>
+      <c r="BR37" s="21"/>
+      <c r="BS37" s="21"/>
+      <c r="BT37" s="21"/>
+      <c r="BU37" s="21"/>
+      <c r="BV37" s="21"/>
+      <c r="BW37" s="21"/>
+      <c r="BX37" s="21"/>
+      <c r="BY37" s="21"/>
+      <c r="BZ37" s="21"/>
+      <c r="CA37" s="21"/>
+      <c r="CB37" s="21"/>
+      <c r="CC37" s="21"/>
+      <c r="CD37" s="21"/>
+      <c r="CE37" s="21"/>
+      <c r="CF37" s="21"/>
+      <c r="CG37" s="21"/>
+      <c r="CH37" s="21"/>
+      <c r="CI37" s="21"/>
+      <c r="CJ37" s="21"/>
+      <c r="CK37" s="21"/>
+      <c r="CL37" s="21"/>
+      <c r="CM37" s="21"/>
+      <c r="CN37" s="21"/>
+      <c r="CO37" s="21"/>
+      <c r="CP37" s="21"/>
+      <c r="CQ37" s="21"/>
+      <c r="CR37" s="21"/>
+      <c r="CS37" s="21"/>
+      <c r="CT37" s="21"/>
+      <c r="CU37" s="21"/>
+      <c r="CV37" s="21"/>
+      <c r="CW37" s="21"/>
+      <c r="CX37" s="21"/>
+      <c r="CY37" s="21"/>
+      <c r="CZ37" s="21"/>
+      <c r="DA37" s="21"/>
+      <c r="DB37" s="21"/>
+      <c r="DC37" s="21"/>
+      <c r="DD37" s="21"/>
+      <c r="DE37" s="21"/>
+      <c r="DF37" s="21"/>
+      <c r="DG37" s="21"/>
+      <c r="DH37" s="21"/>
+      <c r="DI37" s="21"/>
+      <c r="DJ37" s="21"/>
+      <c r="DK37" s="21"/>
+      <c r="DL37" s="21"/>
+      <c r="DM37" s="21"/>
+      <c r="DN37" s="21"/>
+      <c r="DO37" s="21"/>
+      <c r="DP37" s="21"/>
+      <c r="DQ37" s="21"/>
+      <c r="DR37" s="21"/>
+      <c r="DS37" s="21"/>
+      <c r="DT37" s="21"/>
+      <c r="DU37" s="21"/>
+      <c r="DV37" s="21"/>
+      <c r="DW37" s="21"/>
+      <c r="DX37" s="21"/>
+      <c r="DY37" s="21"/>
+      <c r="DZ37" s="21"/>
+      <c r="EA37" s="21"/>
+      <c r="EB37" s="21"/>
+      <c r="EC37" s="21"/>
+      <c r="ED37" s="21"/>
+      <c r="EE37" s="21"/>
+      <c r="EF37" s="21"/>
+      <c r="EG37" s="21"/>
+      <c r="EH37" s="21"/>
+      <c r="EI37" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
-        <v>27</v>
-      </c>
-      <c r="B31" s="29">
+    <row r="38" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>34</v>
+      </c>
+      <c r="B38" s="16">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="21"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="AY38" s="21"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="21"/>
+      <c r="BB38" s="21"/>
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="21"/>
+      <c r="BE38" s="21"/>
+      <c r="BF38" s="21"/>
+      <c r="BG38" s="21"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="21"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="21"/>
+      <c r="BL38" s="21"/>
+      <c r="BM38" s="21"/>
+      <c r="BN38" s="21"/>
+      <c r="BO38" s="21"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="21"/>
+      <c r="BR38" s="21"/>
+      <c r="BS38" s="21"/>
+      <c r="BT38" s="21"/>
+      <c r="BU38" s="21"/>
+      <c r="BV38" s="21"/>
+      <c r="BW38" s="21"/>
+      <c r="BX38" s="21"/>
+      <c r="BY38" s="21"/>
+      <c r="BZ38" s="21"/>
+      <c r="CA38" s="21"/>
+      <c r="CB38" s="21"/>
+      <c r="CC38" s="21"/>
+      <c r="CD38" s="21"/>
+      <c r="CE38" s="21"/>
+      <c r="CF38" s="21"/>
+      <c r="CG38" s="21"/>
+      <c r="CH38" s="21"/>
+      <c r="CI38" s="21"/>
+      <c r="CJ38" s="21"/>
+      <c r="CK38" s="21"/>
+      <c r="CL38" s="21"/>
+      <c r="CM38" s="21"/>
+      <c r="CN38" s="21"/>
+      <c r="CO38" s="21"/>
+      <c r="CP38" s="21"/>
+      <c r="CQ38" s="21"/>
+      <c r="CR38" s="21"/>
+      <c r="CS38" s="21"/>
+      <c r="CT38" s="21"/>
+      <c r="CU38" s="21"/>
+      <c r="CV38" s="21"/>
+      <c r="CW38" s="21"/>
+      <c r="CX38" s="21"/>
+      <c r="CY38" s="21"/>
+      <c r="CZ38" s="21"/>
+      <c r="DA38" s="21"/>
+      <c r="DB38" s="21"/>
+      <c r="DC38" s="21"/>
+      <c r="DD38" s="21"/>
+      <c r="DE38" s="21"/>
+      <c r="DF38" s="21"/>
+      <c r="DG38" s="21"/>
+      <c r="DH38" s="21"/>
+      <c r="DI38" s="21"/>
+      <c r="DJ38" s="21"/>
+      <c r="DK38" s="21"/>
+      <c r="DL38" s="21"/>
+      <c r="DM38" s="21"/>
+      <c r="DN38" s="21"/>
+      <c r="DO38" s="21"/>
+      <c r="DP38" s="21"/>
+      <c r="DQ38" s="21"/>
+      <c r="DR38" s="21"/>
+      <c r="DS38" s="21"/>
+      <c r="DT38" s="21"/>
+      <c r="DU38" s="21"/>
+      <c r="DV38" s="21"/>
+      <c r="DW38" s="21"/>
+      <c r="DX38" s="21"/>
+      <c r="DY38" s="21"/>
+      <c r="DZ38" s="21"/>
+      <c r="EA38" s="21"/>
+      <c r="EB38" s="21"/>
+      <c r="EC38" s="21"/>
+      <c r="ED38" s="21"/>
+      <c r="EE38" s="21"/>
+      <c r="EF38" s="21"/>
+      <c r="EG38" s="21"/>
+      <c r="EH38" s="21"/>
+      <c r="EI38" s="21"/>
+    </row>
+    <row r="39" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>35</v>
+      </c>
+      <c r="B39" s="16">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="5"/>
+      <c r="F39" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="21"/>
+      <c r="BE39" s="21"/>
+      <c r="BF39" s="21"/>
+      <c r="BG39" s="21"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
+      <c r="BL39" s="21"/>
+      <c r="BM39" s="21"/>
+      <c r="BN39" s="21"/>
+      <c r="BO39" s="21"/>
+      <c r="BP39" s="21"/>
+      <c r="BQ39" s="21"/>
+      <c r="BR39" s="21"/>
+      <c r="BS39" s="21"/>
+      <c r="BT39" s="21"/>
+      <c r="BU39" s="21"/>
+      <c r="BV39" s="21"/>
+      <c r="BW39" s="21"/>
+      <c r="BX39" s="21"/>
+      <c r="BY39" s="21"/>
+      <c r="BZ39" s="21"/>
+      <c r="CA39" s="21"/>
+      <c r="CB39" s="21"/>
+      <c r="CC39" s="21"/>
+      <c r="CD39" s="21"/>
+      <c r="CE39" s="21"/>
+      <c r="CF39" s="21"/>
+      <c r="CG39" s="21"/>
+      <c r="CH39" s="21"/>
+      <c r="CI39" s="21"/>
+      <c r="CJ39" s="21"/>
+      <c r="CK39" s="21"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CN39" s="21"/>
+      <c r="CO39" s="21"/>
+      <c r="CP39" s="21"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
+      <c r="CS39" s="21"/>
+      <c r="CT39" s="21"/>
+      <c r="CU39" s="21"/>
+      <c r="CV39" s="21"/>
+      <c r="CW39" s="21"/>
+      <c r="CX39" s="21"/>
+      <c r="CY39" s="21"/>
+      <c r="CZ39" s="21"/>
+      <c r="DA39" s="21"/>
+      <c r="DB39" s="21"/>
+      <c r="DC39" s="21"/>
+      <c r="DD39" s="21"/>
+      <c r="DE39" s="21"/>
+      <c r="DF39" s="21"/>
+      <c r="DG39" s="21"/>
+      <c r="DH39" s="21"/>
+      <c r="DI39" s="21"/>
+      <c r="DJ39" s="21"/>
+      <c r="DK39" s="21"/>
+      <c r="DL39" s="21"/>
+      <c r="DM39" s="21"/>
+      <c r="DN39" s="21"/>
+      <c r="DO39" s="21"/>
+      <c r="DP39" s="21"/>
+      <c r="DQ39" s="21"/>
+      <c r="DR39" s="21"/>
+      <c r="DS39" s="21"/>
+      <c r="DT39" s="21"/>
+      <c r="DU39" s="21"/>
+      <c r="DV39" s="21"/>
+      <c r="DW39" s="21"/>
+      <c r="DX39" s="21"/>
+      <c r="DY39" s="21"/>
+      <c r="DZ39" s="21"/>
+      <c r="EA39" s="21"/>
+      <c r="EB39" s="21"/>
+      <c r="EC39" s="21"/>
+      <c r="ED39" s="21"/>
+      <c r="EE39" s="21"/>
+      <c r="EF39" s="21"/>
+      <c r="EG39" s="21"/>
+      <c r="EH39" s="21"/>
+      <c r="EI39" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
-        <v>28</v>
-      </c>
-      <c r="B32" s="29">
+    <row r="40" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>36</v>
+      </c>
+      <c r="B40" s="16">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>37</v>
+      </c>
+      <c r="B41" s="16">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:139" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>38</v>
+      </c>
+      <c r="B42" s="17">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="5"/>
+      <c r="C42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M42" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
-        <v>29</v>
-      </c>
-      <c r="B33" s="29">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="5"/>
+    <row r="43" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="26"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
-        <v>30</v>
-      </c>
-      <c r="B34" s="29">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="5"/>
+    <row r="44" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="26"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
-        <v>31</v>
-      </c>
-      <c r="B35" s="29">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
-        <v>32</v>
-      </c>
-      <c r="B36" s="29">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
-        <v>33</v>
-      </c>
-      <c r="B37" s="29">
-        <v>13</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
-        <v>34</v>
-      </c>
-      <c r="B38" s="30">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="5"/>
+    <row r="45" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G26:J37"/>
+  <mergeCells count="3">
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G30:J32"/>
+    <mergeCell ref="G37:J41"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D28" r:id="rId1" display="http://www.digikey.com/product-detail/en/NVT2003DP,118/568-8383-2-ND/2763882"/>
+    <hyperlink ref="H28" r:id="rId2" display="http://www.digikey.com/product-detail/en/NVT2003DP,118/568-8383-2-ND/2763882"/>
+    <hyperlink ref="J28" r:id="rId3" display="http://www.digikey.com/product-detail/en/NVT2003DP,118/568-8383-2-ND/2763882"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>